--- a/report_ca_nhan/LONG XUYÊN/NV-36 Đặng Ngọc Mai 7-2024.xlsx
+++ b/report_ca_nhan/LONG XUYÊN/NV-36 Đặng Ngọc Mai 7-2024.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,35 +909,91 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>573</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Kim yến</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>18650000</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>18650000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>18650000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1865000</v>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>20650000</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20650000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>20650000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2065000</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1332,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1286,7 +1342,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>630000</v>
+        <v>665000</v>
       </c>
     </row>
     <row r="4">
@@ -1386,7 +1442,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3214285.714285714</v>
+        <v>3392857.142857143</v>
       </c>
     </row>
     <row r="14">
@@ -1416,7 +1472,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1865000</v>
+        <v>2065000</v>
       </c>
     </row>
     <row r="17">
@@ -1576,7 +1632,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5789285.714285715</v>
+        <v>6202857.142857143</v>
       </c>
     </row>
     <row r="33">
@@ -1596,7 +1652,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5789285.714285715</v>
+        <v>6202857.142857143</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/LONG XUYÊN/NV-36 Đặng Ngọc Mai 7-2024.xlsx
+++ b/report_ca_nhan/LONG XUYÊN/NV-36 Đặng Ngọc Mai 7-2024.xlsx
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>665000</v>
+        <v>735000</v>
       </c>
     </row>
     <row r="4">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3392857.142857143</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="14">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6202857.142857143</v>
+        <v>6630000</v>
       </c>
     </row>
     <row r="33">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6202857.142857143</v>
+        <v>6630000</v>
       </c>
     </row>
   </sheetData>
